--- a/02_MasterWifoMannheim/99_Backup/Course122.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course122.xlsx
@@ -1,115 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD32051265F59281159AA68F259B3FFEF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D22910B-F993-414F-8639-FB08AC4BC4D0}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>MAN 664 Sustainability Games (kein Angebot im FSS 2021!)</t>
-  </si>
-  <si>
-    <t>Content</t>
-  </si>
-  <si>
-    <t>The idea of this interactive seminar is that students work in teams of 4-5 to develop a game (either a board game or a digital game, depending on skills and preferences) which has the goal to convey knowledge about a topic related to sustainability as defined in the United Nations Sustainable Development Goals. For instance, a game could be inspired by a well-known existing game but apply the game’s mechanism to a topic like the climate crisis, poverty, or financial illiteracy. The seminar will comprise of four blocked sessions. During the first session, i.e., the kick-off, the lecturers will provide some introductory guidance. Subsequently, design thinking methods will be used to guide the student teams through the game development process. The remainder of the first day will be dedicated to ideation. During the second session, teams will have the possibility to reframe their ideas and develop first prototypes (e.g., mock-ups of the games). On the third day, the prototypes will be used for test games and teams will receive feedback from the whole group which they can use to craft their ideas further. Finally, the student teams will present their game concepts on the fourth day of final presentations. The games will be made available as a resource for educational institutions and other stakeholders interested in using them for non-commercial educational purposes.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>In the seminar, students will focus on one specific topic related to sustainable development. By designing a game on this topic, students will gain comprehensive knowledge on the topic and sustainable development in general. In the interactive course format, they will acquire a deep understanding of the challenges related to the problem and the stakeholders and challenges involved in potential solutions.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registration</t>
-  </si>
-  <si>
-    <t>Further Information on the registration:Website of the CSR chair</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Seminar 2 SWS 10 SWS 6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>The basis for grading will be the final presentations (50%, 30 minutes) as well as a written summary of the game, it’s underlying theoretical content, and a rulebook (50%, 12 pages).</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Carmela Aprea and Prof. Dr. Laura Marie Edinger-Schons</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Spring term kein Angebot im FSS 2021!</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Wipäd, M.Sc. Wirt.Inf., M.A. K&amp;W, M.Sc. VWL, LL.M.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -124,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -448,113 +420,169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MAN 664 Sustainability Games </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>The idea of this interactive seminar is that students work in teams of 4-5 to develop a game (either a board game or a digital game, depending on skills and preferences) which has the goal to convey knowledge about a topic related to sustainability as defined in the United Nations Sustainable Development Goals. For instance, a game could be inspired by a well-known existing game but apply the game’s mechanism to a topic like the climate crisis, poverty, or financial illiteracy. The seminar will comprise of four blocked sessions. During the first session, i.e., the kick-off, the lecturers will provide some introductory guidance. Subsequently, design thinking methods will be used to guide the student teams through the game development process. The remainder of the first day will be dedicated to ideation. During the second session, teams will have the possibility to reframe their ideas and develop first prototypes (e.g., mock-ups of the games). On the third day, the prototypes will be used for test games and teams will receive feedback from the whole group which they can use to craft their ideas further. Finally, the student teams will present their game concepts on the fourth day of final presentations. The games will be made available as a resource for educational institutions and other stakeholders interested in using them for non-commercial educational purposes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>In the seminar, students will focus on one specific topic related to sustainable development. By designing a game on this topic, students will gain comprehensive knowledge on the topic and sustainable development in general. In the interactive course format, they will acquire a deep understanding of the challenges related to the problem and the stakeholders and challenges involved in potential solutions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Further Information on the registration:Website of the CSR chair</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>The basis for grading will be the final presentations (50%, 30 minutes) as well as a written summary of the game, it’s underlying theoretical content, and a rulebook (50%, 12 pages).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Carmela Aprea and Prof. Dr. Laura Marie Edinger-Schons</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Wipäd, M.Sc. Wirt.Inf., M.A. K&amp;W, M.Sc. VWL, LL.M.</t>
+        </is>
       </c>
     </row>
   </sheetData>
